--- a/applications/openai_costs.xlsx
+++ b/applications/openai_costs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,23 +555,23 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1710521100</v>
+        <v>1710792000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>completion</t>
+          <t>embeddings</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>text-moderation</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -598,12 +598,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-03-15 09:45:00</t>
+          <t>2024-03-18 13:00:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -657,26 +657,26 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1710529800</v>
+        <v>1710792600</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>completion</t>
+          <t>embeddings</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gpt-3.5-turbo-0125</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -700,12 +700,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-03-15 12:10:00</t>
+          <t>2024-03-18 13:10:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -739,312 +739,6 @@
         </is>
       </c>
       <c r="V3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1710530700</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>completion</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo-0125</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>17</v>
-      </c>
-      <c r="I4" t="n">
-        <v>83</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>jamescho@us.ibm.com</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2024-03-15 12:25:00</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2024-03-15</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>james_cho</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1710532800</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>completion</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>text-moderation</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>jamescho@us.ibm.com</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2024-03-15 13:00:00</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2024-03-15</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>james_cho</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1710532800</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>completion</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo-0125</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>17</v>
-      </c>
-      <c r="I6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>jamescho@us.ibm.com</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2024-03-15 13:00:00</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2024-03-15</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>james_cho</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
         <is>
           <t>NaN</t>
         </is>

--- a/applications/openai_costs.xlsx
+++ b/applications/openai_costs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,36 +509,6 @@
           <t>user</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>context</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>generated</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>context_costs</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>generated_costs</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>total_costs</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -555,26 +525,26 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1710792000</v>
+        <v>1710908700</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>embeddings</t>
+          <t>completion</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>text-embedding-3-small</t>
+          <t>gpt-3.5-turbo-0125</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -598,47 +568,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2024-03-18 13:00:00</t>
+          <t>2024-03-19 21:25:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>james_cho</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>NaN</t>
         </is>
       </c>
     </row>
@@ -657,23 +597,23 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1710792600</v>
+        <v>1710908700</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>embeddings</t>
+          <t>completion</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>text-embedding-3-small</t>
+          <t>text-moderation</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -700,12 +640,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2024-03-18 13:10:00</t>
+          <t>2024-03-19 21:25:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -713,34 +653,2668 @@
           <t>james_cho</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>NaN</t>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1710908700</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2024-03-19 21:25:00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1710909000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2024-03-19 21:30:00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1710909000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2024-03-19 21:30:00</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1710909000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>90</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2024-03-19 21:30:00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1710909900</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7175</v>
+      </c>
+      <c r="I8" t="n">
+        <v>424</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2024-03-19 21:45:00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1710910200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>548</v>
+      </c>
+      <c r="I9" t="n">
+        <v>74</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2024-03-19 21:50:00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1710945900</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>12</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2024-03-20 07:45:00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1710945900</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>17</v>
+      </c>
+      <c r="I11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2024-03-20 07:45:00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1710945900</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2024-03-20 07:45:00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1710948300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>17</v>
+      </c>
+      <c r="I13" t="n">
+        <v>77</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2024-03-20 08:25:00</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1710948300</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2024-03-20 08:25:00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1710948300</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2024-03-20 08:25:00</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1710948900</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7121</v>
+      </c>
+      <c r="I16" t="n">
+        <v>394</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2024-03-20 08:35:00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1710949200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>548</v>
+      </c>
+      <c r="I17" t="n">
+        <v>74</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2024-03-20 08:40:00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1710950100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>626</v>
+      </c>
+      <c r="I18" t="n">
+        <v>88</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2024-03-20 08:55:00</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1710950700</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>76</v>
+      </c>
+      <c r="I19" t="n">
+        <v>255</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2024-03-20 09:05:00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1710951000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>76</v>
+      </c>
+      <c r="I20" t="n">
+        <v>255</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2024-03-20 09:10:00</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1710951900</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>38</v>
+      </c>
+      <c r="I21" t="n">
+        <v>123</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2024-03-20 09:25:00</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1710955500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>76</v>
+      </c>
+      <c r="I22" t="n">
+        <v>264</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2024-03-20 10:25:00</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1710955800</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>38</v>
+      </c>
+      <c r="I23" t="n">
+        <v>123</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2024-03-20 10:30:00</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1710960300</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>148</v>
+      </c>
+      <c r="I24" t="n">
+        <v>522</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2024-03-20 11:45:00</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1710960300</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>24</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2024-03-20 11:45:00</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1710960900</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>110</v>
+      </c>
+      <c r="I26" t="n">
+        <v>382</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2024-03-20 11:55:00</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1710960900</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>24</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2024-03-20 11:55:00</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1710963600</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>55</v>
+      </c>
+      <c r="I28" t="n">
+        <v>183</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2024-03-20 12:40:00</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1710963600</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>12</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2024-03-20 12:40:00</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1710963900</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>12</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2024-03-20 12:45:00</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1710963900</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>55</v>
+      </c>
+      <c r="I31" t="n">
+        <v>213</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2024-03-20 12:45:00</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1710964200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>55</v>
+      </c>
+      <c r="I32" t="n">
+        <v>192</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2024-03-20 12:50:00</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1710964200</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>12</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2024-03-20 12:50:00</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1710964500</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>76</v>
+      </c>
+      <c r="I34" t="n">
+        <v>246</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2024-03-20 12:55:00</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1710964800</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>12</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2024-03-20 13:00:00</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1710964800</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>55</v>
+      </c>
+      <c r="I36" t="n">
+        <v>206</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2024-03-20 13:00:00</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1710965100</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>76</v>
+      </c>
+      <c r="I37" t="n">
+        <v>246</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2024-03-20 13:05:00</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1710965400</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>76</v>
+      </c>
+      <c r="I38" t="n">
+        <v>246</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2024-03-20 13:10:00</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1710965700</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>38</v>
+      </c>
+      <c r="I39" t="n">
+        <v>123</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2024-03-20 13:15:00</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1710966300</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>38</v>
+      </c>
+      <c r="I40" t="n">
+        <v>132</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2024-03-20 13:25:00</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>james_cho</t>
         </is>
       </c>
     </row>

--- a/applications/openai_costs.xlsx
+++ b/applications/openai_costs.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,236 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>organization_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>organization_name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>aggregation_timestamp</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>n_requests</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>operation</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>snapshot_id</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_context_tokens_total</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>n_generated_tokens_total</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>api_key_id</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>api_key_name</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>api_key_redacted</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>local_timestamp</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_date</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1711645800</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>completion</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>gpt-3.5-turbo-0125</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>81</v>
-      </c>
-      <c r="I2" t="n">
-        <v>177</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>jamescho@us.ibm.com</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2024-03-28 10:10:00</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>james_cho</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Personal</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1711645800</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>completion</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>text-moderation</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>jamescho@us.ibm.com</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2024-03-28 10:10:00</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2024-03-28</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>james_cho</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/applications/openai_costs.xlsx
+++ b/applications/openai_costs.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,890 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>organization_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>organization_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>aggregation_timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>n_requests</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>operation</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>snapshot_id</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>n_context_tokens_total</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>n_generated_tokens_total</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>api_key_id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>api_key_name</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>api_key_redacted</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>api_key_type</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>project_id</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>project_name</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>local_timestamp</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>query_date</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1713300300</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>34</v>
+      </c>
+      <c r="I2" t="n">
+        <v>53</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2024-04-16 13:45:00</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1713300600</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2024-04-16 13:50:00</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1713300600</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>115</v>
+      </c>
+      <c r="I4" t="n">
+        <v>235</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2024-04-16 13:50:00</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1713300900</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2024-04-16 13:55:00</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1713300900</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2024-04-16 13:55:00</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1713300900</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>69</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2024-04-16 13:55:00</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1713301200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2024-04-16 14:00:00</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1713301200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>47</v>
+      </c>
+      <c r="I9" t="n">
+        <v>134</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2024-04-16 14:00:00</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1713301200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2024-04-16 14:00:00</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/applications/openai_costs.xlsx
+++ b/applications/openai_costs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1713300300</v>
+        <v>1716906060</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -598,12 +598,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2024-04-16 13:45:00</t>
+          <t>2024-05-28 07:21:00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1713300600</v>
+        <v>1716906060</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -685,12 +685,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2024-04-16 13:50:00</t>
+          <t>2024-05-28 07:21:00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -714,26 +714,26 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1713300600</v>
+        <v>1716906060</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>completion</t>
+          <t>embeddings</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>gpt-3.5-turbo-0125</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -772,12 +772,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2024-04-16 13:50:00</t>
+          <t>2024-05-28 07:21:00</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1713300900</v>
+        <v>1716906180</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -813,14 +813,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>text-moderation</t>
+          <t>gpt-3.5-turbo-0125</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -859,12 +859,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2024-04-16 13:55:00</t>
+          <t>2024-05-28 07:23:00</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -888,23 +888,23 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1713300900</v>
+        <v>1716906180</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>embeddings</t>
+          <t>completion</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>text-embedding-3-small</t>
+          <t>text-moderation</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -946,12 +946,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2024-04-16 13:55:00</t>
+          <t>2024-05-28 07:23:00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -975,26 +975,26 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1713300900</v>
+        <v>1716906240</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>completion</t>
+          <t>embeddings</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>gpt-3.5-turbo-0125</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2024-04-16 13:55:00</t>
+          <t>2024-05-28 07:24:00</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1062,26 +1062,26 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1713301200</v>
+        <v>1716906300</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>embeddings</t>
+          <t>completion</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>text-embedding-3-small</t>
+          <t>gpt-3.5-turbo-0125</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2024-04-16 14:00:00</t>
+          <t>2024-05-28 07:25:00</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1149,26 +1149,26 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1713301200</v>
+        <v>1716906300</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>completion</t>
+          <t>embeddings</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>gpt-3.5-turbo-0125</t>
+          <t>text-embedding-3-small</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1207,12 +1207,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2024-04-16 14:00:00</t>
+          <t>2024-05-28 07:25:00</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1713301200</v>
+        <v>1716906300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1294,15 +1294,3582 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2024-04-16 14:00:00</t>
+          <t>2024-05-28 07:25:00</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1716906360</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:26:00</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1716906360</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>47</v>
+      </c>
+      <c r="I12" t="n">
+        <v>117</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:26:00</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1716906360</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:26:00</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1716906480</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>47</v>
+      </c>
+      <c r="I14" t="n">
+        <v>141</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:28:00</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1716906480</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:28:00</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1716906480</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:28:00</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1716906720</v>
+      </c>
+      <c r="E17" t="n">
+        <v>14</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6256</v>
+      </c>
+      <c r="I17" t="n">
+        <v>387</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:32:00</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1716906780</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>814</v>
+      </c>
+      <c r="I18" t="n">
+        <v>42</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:33:00</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1716906780</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:33:00</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1716906780</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:33:00</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1716906960</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>569</v>
+      </c>
+      <c r="I21" t="n">
+        <v>79</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:36:00</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1716907020</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4378</v>
+      </c>
+      <c r="I22" t="n">
+        <v>374</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:37:00</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1716907020</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:37:00</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1716907020</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:37:00</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1716907080</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4569</v>
+      </c>
+      <c r="I25" t="n">
+        <v>185</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:38:00</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1716907080</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:38:00</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1716907080</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:38:00</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1716908160</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>547</v>
+      </c>
+      <c r="I28" t="n">
+        <v>78</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:56:00</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1716908160</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:56:00</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1716908220</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:57:00</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1716908220</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>568</v>
+      </c>
+      <c r="I31" t="n">
+        <v>77</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:57:00</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1716908280</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1875</v>
+      </c>
+      <c r="I32" t="n">
+        <v>153</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:58:00</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1716908280</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:58:00</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1716908280</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:58:00</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1716908340</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:59:00</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1716908340</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>548</v>
+      </c>
+      <c r="I36" t="n">
+        <v>74</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2024-05-28 07:59:00</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1716908400</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>47</v>
+      </c>
+      <c r="I37" t="n">
+        <v>164</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1716908400</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1716908400</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1716908460</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:01:00</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1716910020</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>34</v>
+      </c>
+      <c r="I41" t="n">
+        <v>53</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:27:00</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1716910080</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>34</v>
+      </c>
+      <c r="I42" t="n">
+        <v>58</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:28:00</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1716910140</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:29:00</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1716910140</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:29:00</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1716910140</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>47</v>
+      </c>
+      <c r="I45" t="n">
+        <v>152</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:29:00</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1716910380</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:33:00</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1716910380</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:33:00</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1716910380</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>47</v>
+      </c>
+      <c r="I48" t="n">
+        <v>118</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:33:00</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1716910560</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:36:00</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1716910560</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>embeddings</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>text-embedding-3-small</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:36:00</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1716910560</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>gpt-3.5-turbo-0125</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>47</v>
+      </c>
+      <c r="I51" t="n">
+        <v>145</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>2024-05-28 08:36:00</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
         <is>
           <t>james_cho</t>
         </is>

--- a/applications/openai_costs.xlsx
+++ b/applications/openai_costs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,15 +511,20 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>request_type</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>local_timestamp</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>query_date</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>user</t>
         </is>
@@ -540,10 +545,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1717618080</v>
+        <v>1719345180</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -552,14 +557,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>text-moderation</t>
+          <t>gpt-3.5-turbo-0125</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -596,17 +601,18 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2024-06-05 13:08:00</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-25 12:53:00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>james_cho</t>
         </is>
@@ -627,10 +633,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1717618080</v>
+        <v>1719345180</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -639,14 +645,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>gpt-3.5-turbo-0125</t>
+          <t>text-moderation</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -683,17 +689,18 @@
           <t>NaN</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2024-06-05 13:08:00</t>
-        </is>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-25 12:53:00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>james_cho</t>
         </is>
@@ -714,73 +721,162 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1717618440</v>
+        <v>1719347220</v>
       </c>
       <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>completion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>text-moderation</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>jamescho@us.ibm.com</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2024-06-25 13:27:00</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>james_cho</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>org-zvKGqHl0adRlJbe7lpb7n1wX</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1719347220</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>completion</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>gpt-3.5-turbo-0125</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>532</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H5" t="n">
+        <v>47</v>
+      </c>
+      <c r="I5" t="n">
+        <v>138</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>jamescho@us.ibm.com</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2024-06-05 13:14:00</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2024-06-05</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>2024-06-25 13:27:00</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>james_cho</t>
         </is>
